--- a/Input/Al_ittihad/benefits.xlsx
+++ b/Input/Al_ittihad/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
+    <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
@@ -196,46 +199,40 @@
     <t xml:space="preserve">coverages</t>
   </si>
   <si>
-    <t xml:space="preserve">Family Care Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 1,000,000</t>
+    <t xml:space="preserve">Family Care Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,000,000 </t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide Including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl/Mednet Silk Road (Out Patient treatment restricted to Clinics Only From 10 PM to 8AM Out Patient treatments access is available at Network Hospitals)</t>
+    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl</t>
   </si>
   <si>
     <t xml:space="preserve">SEA- 100% of actual cost subject to 100% of UAE applicable network rates  Elsewhere- 80% of actual cost subject to 80% of UAE applicable network rates * No elective treatment reimbursement for Silk Road Network within UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to declaration</t>
   </si>
   <si>
     <t xml:space="preserve">Private Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with $ co-pay. Consultations covered with 20% co-pay with AED $ max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 50</t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED 50 deductible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 50 </t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ co-pay</t>
@@ -244,19 +241,22 @@
     <t xml:space="preserve">Covered for children up to 6 years as per MOH schedule  * Subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full with 10% co-pay Normal Delivery and C-Section-  Covered up to AED 10,000</t>
+    <t xml:space="preserve">Covered in full with NIL  co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full with AED 50 deductible Delivery Inside AUH- Covered in full with AED 500 deductible Outside AUH- OP and IP covered up to AED 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical Emergency covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 for the first 30 days</t>
+    <t xml:space="preserve">Inside AUH- Covered in full  Outside AUH- Covered up to AED 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full for the first 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Covered  up to AED 3,500 with 20% co-pay</t>
@@ -268,9 +268,6 @@
     <t xml:space="preserve">Not Available Emergencies covered in full</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA benefits only- Diabetic Screening (above 18 years only) *Subject to pre-approval</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,600 on reimbursement basis</t>
   </si>
   <si>
@@ -283,7 +280,10 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation- 20% up to a max of AED 50  OP- 0% or 10% or 20% Pharmacy- 0% or 10% or 20% </t>
+    <t xml:space="preserve">Worldwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation- AED 50 OP- 0%  Pharmacy- 0% or 10% or 20% or 30%</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -292,16 +292,16 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, nil co-pay on all OP services/Nil/Nil/50</t>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on all OP services/nil</t>
   </si>
   <si>
     <t xml:space="preserve">al_ittihad_al_watani</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">2023-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE-AbuDhabi</t>
   </si>
   <si>
     <t xml:space="preserve">2023-10-31</t>
@@ -310,13 +310,13 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, 10% co-pay on all OP services/10%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, 20% co-pay on all OP services/20%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, diagnostics 20% co-pay, pharma 30% co-pay/30%/20%/50</t>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 10% co-pay/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 20% co-pay/20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 30% co-pay/30%</t>
   </si>
 </sst>
 </file>
@@ -351,15 +351,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -405,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,81 +422,82 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="77.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="62.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="40.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="48.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="120.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="78.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="73.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="22" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="93.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="18.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="29.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="60" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="82.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -511,336 +512,330 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AS1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BH1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BI1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="BL1" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="248.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="U2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="V2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Z2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AA2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AB2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AD2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AE2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AH2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AJ2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AK2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AO2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AT2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AU2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AX2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AY2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="BA2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="BB2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BC2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BD2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BE2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BF2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BG2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BH2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BI2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BK2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="5" t="s">
-        <v>60</v>
+      <c r="BL2" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC3" s="4" t="s">
+      <c r="BF3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC4" s="4" t="s">
+      <c r="BF4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BC5" s="4" t="s">
+      <c r="BF5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
